--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H2">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.30935202482785</v>
+        <v>9.126239333333332</v>
       </c>
       <c r="N2">
-        <v>7.30935202482785</v>
+        <v>27.378718</v>
       </c>
       <c r="O2">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="P2">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="Q2">
-        <v>287.302657544218</v>
+        <v>422.6162726615581</v>
       </c>
       <c r="R2">
-        <v>287.302657544218</v>
+        <v>3803.546453954023</v>
       </c>
       <c r="S2">
-        <v>0.02411676766980294</v>
+        <v>0.02936128599173621</v>
       </c>
       <c r="T2">
-        <v>0.02411676766980294</v>
+        <v>0.02936128599173621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H3">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.50901645567813</v>
+        <v>3.004982</v>
       </c>
       <c r="N3">
-        <v>2.50901645567813</v>
+        <v>9.014946</v>
       </c>
       <c r="O3">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="P3">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="Q3">
-        <v>98.61983566942499</v>
+        <v>139.1541735725253</v>
       </c>
       <c r="R3">
-        <v>98.61983566942499</v>
+        <v>1252.387562152728</v>
       </c>
       <c r="S3">
-        <v>0.008278348988496964</v>
+        <v>0.00966774294202009</v>
       </c>
       <c r="T3">
-        <v>0.008278348988496964</v>
+        <v>0.00966774294202009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H4">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I4">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J4">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.14853668312679</v>
+        <v>3.162963666666666</v>
       </c>
       <c r="N4">
-        <v>3.14853668312679</v>
+        <v>9.488890999999999</v>
       </c>
       <c r="O4">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="P4">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="Q4">
-        <v>123.756928571119</v>
+        <v>146.4699605771097</v>
       </c>
       <c r="R4">
-        <v>123.756928571119</v>
+        <v>1318.229645193988</v>
       </c>
       <c r="S4">
-        <v>0.0103884075399432</v>
+        <v>0.0101760075981429</v>
       </c>
       <c r="T4">
-        <v>0.0103884075399432</v>
+        <v>0.0101760075981429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H5">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I5">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J5">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.832451544471713</v>
+        <v>0.8380190000000001</v>
       </c>
       <c r="N5">
-        <v>0.832451544471713</v>
+        <v>2.514057</v>
       </c>
       <c r="O5">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="P5">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="Q5">
-        <v>32.72048468744324</v>
+        <v>38.80683524329733</v>
       </c>
       <c r="R5">
-        <v>32.72048468744324</v>
+        <v>349.261517189676</v>
       </c>
       <c r="S5">
-        <v>0.002746623835628681</v>
+        <v>0.002696106756223077</v>
       </c>
       <c r="T5">
-        <v>0.002746623835628681</v>
+        <v>0.002696106756223077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H6">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I6">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J6">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.07053439799038</v>
+        <v>1.163981666666667</v>
       </c>
       <c r="N6">
-        <v>1.07053439799038</v>
+        <v>3.491945</v>
       </c>
       <c r="O6">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="P6">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="Q6">
-        <v>42.07861059234995</v>
+        <v>53.90145660725111</v>
       </c>
       <c r="R6">
-        <v>42.07861059234995</v>
+        <v>485.1131094652599</v>
       </c>
       <c r="S6">
-        <v>0.003532163900598892</v>
+        <v>0.003744806305847239</v>
       </c>
       <c r="T6">
-        <v>0.003532163900598892</v>
+        <v>0.003744806305847239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H7">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I7">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J7">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.30935202482785</v>
+        <v>9.126239333333332</v>
       </c>
       <c r="N7">
-        <v>7.30935202482785</v>
+        <v>27.378718</v>
       </c>
       <c r="O7">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="P7">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="Q7">
-        <v>2448.056488087542</v>
+        <v>3064.737370487454</v>
       </c>
       <c r="R7">
-        <v>2448.056488087542</v>
+        <v>27582.63633438708</v>
       </c>
       <c r="S7">
-        <v>0.2054948258063864</v>
+        <v>0.2129227771040083</v>
       </c>
       <c r="T7">
-        <v>0.2054948258063864</v>
+        <v>0.2129227771040083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H8">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J8">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.50901645567813</v>
+        <v>3.004982</v>
       </c>
       <c r="N8">
-        <v>2.50901645567813</v>
+        <v>9.014946</v>
       </c>
       <c r="O8">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="P8">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="Q8">
-        <v>840.3226431259367</v>
+        <v>1009.12109541164</v>
       </c>
       <c r="R8">
-        <v>840.3226431259367</v>
+        <v>9082.089858704761</v>
       </c>
       <c r="S8">
-        <v>0.07053838667964243</v>
+        <v>0.07010873693073105</v>
       </c>
       <c r="T8">
-        <v>0.07053838667964243</v>
+        <v>0.07010873693073105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H9">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J9">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.14853668312679</v>
+        <v>3.162963666666666</v>
       </c>
       <c r="N9">
-        <v>3.14853668312679</v>
+        <v>9.488890999999999</v>
       </c>
       <c r="O9">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="P9">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="Q9">
-        <v>1054.511484592467</v>
+        <v>1062.173869944607</v>
       </c>
       <c r="R9">
-        <v>1054.511484592467</v>
+        <v>9559.56482950146</v>
       </c>
       <c r="S9">
-        <v>0.08851783236687052</v>
+        <v>0.07379458100840332</v>
       </c>
       <c r="T9">
-        <v>0.08851783236687052</v>
+        <v>0.07379458100840332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H10">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J10">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.832451544471713</v>
+        <v>0.8380190000000001</v>
       </c>
       <c r="N10">
-        <v>0.832451544471713</v>
+        <v>2.514057</v>
       </c>
       <c r="O10">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="P10">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="Q10">
-        <v>278.8056174528643</v>
+        <v>281.4202052643801</v>
       </c>
       <c r="R10">
-        <v>278.8056174528643</v>
+        <v>2532.78184737942</v>
       </c>
       <c r="S10">
-        <v>0.0234035088941418</v>
+        <v>0.01955168237744995</v>
       </c>
       <c r="T10">
-        <v>0.0234035088941418</v>
+        <v>0.01955168237744995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H11">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J11">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.07053439799038</v>
+        <v>1.163981666666667</v>
       </c>
       <c r="N11">
-        <v>1.07053439799038</v>
+        <v>3.491945</v>
       </c>
       <c r="O11">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="P11">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="Q11">
-        <v>358.5445973623038</v>
+        <v>390.8836906529667</v>
       </c>
       <c r="R11">
-        <v>358.5445973623038</v>
+        <v>3517.9532158767</v>
       </c>
       <c r="S11">
-        <v>0.03009696056333517</v>
+        <v>0.02715666332128686</v>
       </c>
       <c r="T11">
-        <v>0.03009696056333517</v>
+        <v>0.02715666332128686</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H12">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I12">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J12">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.30935202482785</v>
+        <v>9.126239333333332</v>
       </c>
       <c r="N12">
-        <v>7.30935202482785</v>
+        <v>27.378718</v>
       </c>
       <c r="O12">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="P12">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="Q12">
-        <v>957.6802987922574</v>
+        <v>1363.779945910399</v>
       </c>
       <c r="R12">
-        <v>957.6802987922574</v>
+        <v>12274.01951319359</v>
       </c>
       <c r="S12">
-        <v>0.08038962627543972</v>
+        <v>0.09474867772954094</v>
       </c>
       <c r="T12">
-        <v>0.08038962627543972</v>
+        <v>0.09474867772954096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H13">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I13">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J13">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.50901645567813</v>
+        <v>3.004982</v>
       </c>
       <c r="N13">
-        <v>2.50901645567813</v>
+        <v>9.014946</v>
       </c>
       <c r="O13">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="P13">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="Q13">
-        <v>328.7344241714933</v>
+        <v>449.0496073726013</v>
       </c>
       <c r="R13">
-        <v>328.7344241714933</v>
+        <v>4041.446466353412</v>
       </c>
       <c r="S13">
-        <v>0.02759463417629604</v>
+        <v>0.03119774319978073</v>
       </c>
       <c r="T13">
-        <v>0.02759463417629604</v>
+        <v>0.03119774319978073</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H14">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I14">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J14">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.14853668312679</v>
+        <v>3.162963666666666</v>
       </c>
       <c r="N14">
-        <v>3.14853668312679</v>
+        <v>9.488890999999999</v>
       </c>
       <c r="O14">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="P14">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="Q14">
-        <v>412.5251515063352</v>
+        <v>472.6576041555223</v>
       </c>
       <c r="R14">
-        <v>412.5251515063352</v>
+        <v>4253.918437399701</v>
       </c>
       <c r="S14">
-        <v>0.03462819774055642</v>
+        <v>0.03283790991856308</v>
       </c>
       <c r="T14">
-        <v>0.03462819774055642</v>
+        <v>0.03283790991856308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H15">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I15">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J15">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.832451544471713</v>
+        <v>0.8380190000000001</v>
       </c>
       <c r="N15">
-        <v>0.832451544471713</v>
+        <v>2.514057</v>
       </c>
       <c r="O15">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="P15">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="Q15">
-        <v>109.068825954996</v>
+        <v>125.2294033444393</v>
       </c>
       <c r="R15">
-        <v>109.068825954996</v>
+        <v>1127.064630099954</v>
       </c>
       <c r="S15">
-        <v>0.009155458421647125</v>
+        <v>0.008700318856664382</v>
       </c>
       <c r="T15">
-        <v>0.009155458421647125</v>
+        <v>0.008700318856664384</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H16">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I16">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J16">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.07053439799038</v>
+        <v>1.163981666666667</v>
       </c>
       <c r="N16">
-        <v>1.07053439799038</v>
+        <v>3.491945</v>
       </c>
       <c r="O16">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="P16">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="Q16">
-        <v>140.2627344602359</v>
+        <v>173.9396476935878</v>
       </c>
       <c r="R16">
-        <v>140.2627344602359</v>
+        <v>1565.45682924229</v>
       </c>
       <c r="S16">
-        <v>0.01177393835693341</v>
+        <v>0.01208446543969962</v>
       </c>
       <c r="T16">
-        <v>0.01177393835693341</v>
+        <v>0.01208446543969962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H17">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I17">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J17">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.30935202482785</v>
+        <v>9.126239333333332</v>
       </c>
       <c r="N17">
-        <v>7.30935202482785</v>
+        <v>27.378718</v>
       </c>
       <c r="O17">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="P17">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="Q17">
-        <v>961.2081437649722</v>
+        <v>1209.636817483589</v>
       </c>
       <c r="R17">
-        <v>961.2081437649722</v>
+        <v>10886.7313573523</v>
       </c>
       <c r="S17">
-        <v>0.08068576073625289</v>
+        <v>0.08403957642376865</v>
       </c>
       <c r="T17">
-        <v>0.08068576073625289</v>
+        <v>0.08403957642376865</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H18">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I18">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J18">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.50901645567813</v>
+        <v>3.004982</v>
       </c>
       <c r="N18">
-        <v>2.50901645567813</v>
+        <v>9.014946</v>
       </c>
       <c r="O18">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="P18">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="Q18">
-        <v>329.945396232978</v>
+        <v>398.295149876134</v>
       </c>
       <c r="R18">
-        <v>329.945396232978</v>
+        <v>3584.656348885206</v>
       </c>
       <c r="S18">
-        <v>0.02769628562675975</v>
+        <v>0.02767157480942488</v>
       </c>
       <c r="T18">
-        <v>0.02769628562675975</v>
+        <v>0.02767157480942488</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H19">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I19">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J19">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.14853668312679</v>
+        <v>3.162963666666666</v>
       </c>
       <c r="N19">
-        <v>3.14853668312679</v>
+        <v>9.488890999999999</v>
       </c>
       <c r="O19">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="P19">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="Q19">
-        <v>414.0447867997577</v>
+        <v>419.2348199316223</v>
       </c>
       <c r="R19">
-        <v>414.0447867997577</v>
+        <v>3773.113379384601</v>
       </c>
       <c r="S19">
-        <v>0.03475575900861973</v>
+        <v>0.02912635939971004</v>
       </c>
       <c r="T19">
-        <v>0.03475575900861973</v>
+        <v>0.02912635939971004</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H20">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I20">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J20">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.832451544471713</v>
+        <v>0.8380190000000001</v>
       </c>
       <c r="N20">
-        <v>0.832451544471713</v>
+        <v>2.514057</v>
       </c>
       <c r="O20">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="P20">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="Q20">
-        <v>109.4706071233154</v>
+        <v>111.075175559803</v>
       </c>
       <c r="R20">
-        <v>109.4706071233154</v>
+        <v>999.6765800382271</v>
       </c>
       <c r="S20">
-        <v>0.009189184747652202</v>
+        <v>0.007716953196464881</v>
       </c>
       <c r="T20">
-        <v>0.009189184747652202</v>
+        <v>0.007716953196464881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H21">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I21">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J21">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.07053439799038</v>
+        <v>1.163981666666667</v>
       </c>
       <c r="N21">
-        <v>1.07053439799038</v>
+        <v>3.491945</v>
       </c>
       <c r="O21">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="P21">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="Q21">
-        <v>140.7794258688916</v>
+        <v>154.2798766774883</v>
       </c>
       <c r="R21">
-        <v>140.7794258688916</v>
+        <v>1388.518890097395</v>
       </c>
       <c r="S21">
-        <v>0.01181731048152859</v>
+        <v>0.01071860189710478</v>
       </c>
       <c r="T21">
-        <v>0.01181731048152859</v>
+        <v>0.01071860189710478</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H22">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I22">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J22">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.30935202482785</v>
+        <v>9.126239333333332</v>
       </c>
       <c r="N22">
-        <v>7.30935202482785</v>
+        <v>27.378718</v>
       </c>
       <c r="O22">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="P22">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="Q22">
-        <v>779.7040951711191</v>
+        <v>988.8160885614589</v>
       </c>
       <c r="R22">
-        <v>779.7040951711191</v>
+        <v>8899.344797053131</v>
       </c>
       <c r="S22">
-        <v>0.06544994284134573</v>
+        <v>0.06869804559734322</v>
       </c>
       <c r="T22">
-        <v>0.06544994284134573</v>
+        <v>0.06869804559734322</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H23">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I23">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J23">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.50901645567813</v>
+        <v>3.004982</v>
       </c>
       <c r="N23">
-        <v>2.50901645567813</v>
+        <v>9.014946</v>
       </c>
       <c r="O23">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="P23">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="Q23">
-        <v>267.642110914755</v>
+        <v>325.5858671802226</v>
       </c>
       <c r="R23">
-        <v>267.642110914755</v>
+        <v>2930.272804622004</v>
       </c>
       <c r="S23">
-        <v>0.02246642151784953</v>
+        <v>0.02262009387603857</v>
       </c>
       <c r="T23">
-        <v>0.02246642151784953</v>
+        <v>0.02262009387603857</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H24">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I24">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J24">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.14853668312679</v>
+        <v>3.162963666666666</v>
       </c>
       <c r="N24">
-        <v>3.14853668312679</v>
+        <v>9.488890999999999</v>
       </c>
       <c r="O24">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="P24">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="Q24">
-        <v>335.8610910094002</v>
+        <v>342.7029740182148</v>
       </c>
       <c r="R24">
-        <v>335.8610910094002</v>
+        <v>3084.326766163933</v>
       </c>
       <c r="S24">
-        <v>0.02819286104220464</v>
+        <v>0.02380930570183088</v>
       </c>
       <c r="T24">
-        <v>0.02819286104220464</v>
+        <v>0.02380930570183088</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H25">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I25">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J25">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.832451544471713</v>
+        <v>0.8380190000000001</v>
       </c>
       <c r="N25">
-        <v>0.832451544471713</v>
+        <v>2.514057</v>
       </c>
       <c r="O25">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="P25">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="Q25">
-        <v>88.79937319360459</v>
+        <v>90.79826196246866</v>
       </c>
       <c r="R25">
-        <v>88.79937319360459</v>
+        <v>817.184357662218</v>
       </c>
       <c r="S25">
-        <v>0.00745399945423299</v>
+        <v>0.006308213643177885</v>
       </c>
       <c r="T25">
-        <v>0.00745399945423299</v>
+        <v>0.006308213643177885</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H26">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I26">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J26">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.07053439799038</v>
+        <v>1.163981666666667</v>
       </c>
       <c r="N26">
-        <v>1.07053439799038</v>
+        <v>3.491945</v>
       </c>
       <c r="O26">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="P26">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="Q26">
-        <v>114.196176528289</v>
+        <v>126.1158903193255</v>
       </c>
       <c r="R26">
-        <v>114.196176528289</v>
+        <v>1135.04301287393</v>
       </c>
       <c r="S26">
-        <v>0.009585858626068165</v>
+        <v>0.008761907582137874</v>
       </c>
       <c r="T26">
-        <v>0.009585858626068165</v>
+        <v>0.008761907582137874</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H27">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I27">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J27">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.30935202482785</v>
+        <v>9.126239333333332</v>
       </c>
       <c r="N27">
-        <v>7.30935202482785</v>
+        <v>27.378718</v>
       </c>
       <c r="O27">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="P27">
-        <v>0.4915538367212317</v>
+        <v>0.5276446211445039</v>
       </c>
       <c r="Q27">
-        <v>421.9211081208413</v>
+        <v>545.1490740654857</v>
       </c>
       <c r="R27">
-        <v>421.9211081208413</v>
+        <v>4906.341666589371</v>
       </c>
       <c r="S27">
-        <v>0.03541691339200393</v>
+        <v>0.03787425829810663</v>
       </c>
       <c r="T27">
-        <v>0.03541691339200393</v>
+        <v>0.03787425829810663</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H28">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I28">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J28">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.50901645567813</v>
+        <v>3.004982</v>
       </c>
       <c r="N28">
-        <v>2.50901645567813</v>
+        <v>9.014946</v>
       </c>
       <c r="O28">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="P28">
-        <v>0.1687313267983338</v>
+        <v>0.1737366872622802</v>
       </c>
       <c r="Q28">
-        <v>144.8291175028028</v>
+        <v>179.5003500401427</v>
       </c>
       <c r="R28">
-        <v>144.8291175028028</v>
+        <v>1615.503150361284</v>
       </c>
       <c r="S28">
-        <v>0.01215724980928906</v>
+        <v>0.01247079550428487</v>
       </c>
       <c r="T28">
-        <v>0.01215724980928906</v>
+        <v>0.01247079550428487</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H29">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I29">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J29">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.14853668312679</v>
+        <v>3.162963666666666</v>
       </c>
       <c r="N29">
-        <v>3.14853668312679</v>
+        <v>9.488890999999999</v>
       </c>
       <c r="O29">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="P29">
-        <v>0.2117390544868395</v>
+        <v>0.1828705893671315</v>
       </c>
       <c r="Q29">
-        <v>181.7444394238572</v>
+        <v>188.9372666228682</v>
       </c>
       <c r="R29">
-        <v>181.7444394238572</v>
+        <v>1700.435399605814</v>
       </c>
       <c r="S29">
-        <v>0.01525599678864491</v>
+        <v>0.01312642574048132</v>
       </c>
       <c r="T29">
-        <v>0.01525599678864491</v>
+        <v>0.01312642574048132</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H30">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I30">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J30">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.832451544471713</v>
+        <v>0.8380190000000001</v>
       </c>
       <c r="N30">
-        <v>0.832451544471713</v>
+        <v>2.514057</v>
       </c>
       <c r="O30">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="P30">
-        <v>0.05598235646329032</v>
+        <v>0.04845108720213592</v>
       </c>
       <c r="Q30">
-        <v>48.05198558057998</v>
+        <v>50.05843756810867</v>
       </c>
       <c r="R30">
-        <v>48.05198558057998</v>
+        <v>450.5259381129781</v>
       </c>
       <c r="S30">
-        <v>0.004033581109987509</v>
+        <v>0.003477812372155741</v>
       </c>
       <c r="T30">
-        <v>0.004033581109987509</v>
+        <v>0.003477812372155741</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H31">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I31">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J31">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.07053439799038</v>
+        <v>1.163981666666667</v>
       </c>
       <c r="N31">
-        <v>1.07053439799038</v>
+        <v>3.491945</v>
       </c>
       <c r="O31">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="P31">
-        <v>0.07199342553030466</v>
+        <v>0.06729701502394835</v>
       </c>
       <c r="Q31">
-        <v>61.79495226763509</v>
+        <v>69.5295734240589</v>
       </c>
       <c r="R31">
-        <v>61.79495226763509</v>
+        <v>625.7661608165299</v>
       </c>
       <c r="S31">
-        <v>0.005187193601840423</v>
+        <v>0.004830570477871972</v>
       </c>
       <c r="T31">
-        <v>0.005187193601840423</v>
+        <v>0.004830570477871972</v>
       </c>
     </row>
   </sheetData>
